--- a/Curation/Media/KBASE_MEDIAS/HMBaa.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/HMBaa.xlsx
@@ -924,7 +924,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -944,7 +944,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -1004,7 +1004,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -1064,7 +1064,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -1104,7 +1104,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -1144,7 +1144,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -1224,7 +1224,7 @@
         <v>-100</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>0.001</v>
@@ -1244,7 +1244,7 @@
         <v>-100</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>0.001</v>
@@ -1344,7 +1344,7 @@
         <v>-100</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>0.001</v>
@@ -1384,7 +1384,7 @@
         <v>-100</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>0.001</v>
@@ -1424,7 +1424,7 @@
         <v>-100</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>0.001</v>
@@ -1444,7 +1444,7 @@
         <v>-100</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>0.001</v>
@@ -1484,7 +1484,7 @@
         <v>-100</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>0.001</v>
@@ -1604,7 +1604,7 @@
         <v>-100</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>0.001</v>
@@ -1624,7 +1624,7 @@
         <v>-100</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F37">
         <v>0.001</v>
@@ -1744,7 +1744,7 @@
         <v>-100</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>0.001</v>
@@ -1764,7 +1764,7 @@
         <v>-100</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F44">
         <v>0.001</v>
@@ -1784,7 +1784,7 @@
         <v>-100</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>0.001</v>
@@ -1824,7 +1824,7 @@
         <v>-100</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F47">
         <v>0.001</v>
@@ -1924,7 +1924,7 @@
         <v>-100</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F52">
         <v>0.001</v>
